--- a/ig/StructureDefinition-ror-location-supported-capacity.xlsx
+++ b/ig/StructureDefinition-ror-location-supported-capacity.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/fhir/ig/ror30/StructureDefinition/ror-location-supported-capacity</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-location-supported-capacity</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:32:00+00:00</t>
+    <t>2023-02-23T11:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-location-supported-capacity.xlsx
+++ b/ig/StructureDefinition-ror-location-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T16:18:17+00:00</t>
+    <t>2023-02-27T15:55:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-location-supported-capacity.xlsx
+++ b/ig/StructureDefinition-ror-location-supported-capacity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="200">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T15:55:53+00:00</t>
+    <t>2023-03-06T10:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -352,7 +352,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -362,10 +362,11 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J187-NatureCapacite-ROR/FHIR/JDV-J187-NatureCapacite-ROR</t>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -375,6 +376,18 @@
 </t>
   </si>
   <si>
+    <t>Extension.extension:capacityType.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J187-NatureCapacite-ROR/FHIR/JDV-J187-NatureCapacite-ROR</t>
+  </si>
+  <si>
     <t>Extension.extension:capacityStatus</t>
   </si>
   <si>
@@ -393,6 +406,9 @@
     <t>Extension.extension:capacityStatus.value[x]</t>
   </si>
   <si>
+    <t>Extension.extension:capacityStatus.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J188-TypeStatutCapacite-ROR/FHIR/JDV-J188-TypeStatutCapacite-ROR</t>
   </si>
   <si>
@@ -412,6 +428,9 @@
   </si>
   <si>
     <t>Extension.extension:temporalityCapacity.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:temporalityCapacity.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J189-TemporaliteCapacite-ROR/FHIR/JDV-J189-TemporaliteCapacite-ROR</t>
@@ -457,6 +476,9 @@
     <t>Extension.extension:capacitySourceType.value[x]</t>
   </si>
   <si>
+    <t>Extension.extension:capacitySourceType.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J193-TypeSourceCapacite-ROR/FHIR/JDV-J193-TypeSourceCapacite-ROR</t>
   </si>
   <si>
@@ -476,6 +498,9 @@
   </si>
   <si>
     <t>Extension.extension:genderCapacityAvailable.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:genderCapacityAvailable.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J190-GenreCapacite-ROR/FHIR/JDV-J190-GenreCapacite-ROR</t>
@@ -521,6 +546,9 @@
     <t>Extension.extension:capacityClosingType.value[x]</t>
   </si>
   <si>
+    <t>Extension.extension:capacityClosingType.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J191-TypeFermetureCapacite-ROR/FHIR/JDV-J191-TypeFermetureCapacite-ROR</t>
   </si>
   <si>
@@ -542,6 +570,9 @@
     <t>Extension.extension:additionalBedType.value[x]</t>
   </si>
   <si>
+    <t>Extension.extension:additionalBedType.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J192-TypeLitSupplementaire-ROR/FHIR/JDV-J192-TypeLitSupplementaire-ROR</t>
   </si>
   <si>
@@ -563,6 +594,9 @@
     <t>Extension.extension:crisisType.value[x]</t>
   </si>
   <si>
+    <t>Extension.extension:crisisType.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J194-TypeCrise-ROR/FHIR/JDV-J194-TypeCrise-ROR</t>
   </si>
   <si>
@@ -584,8 +618,7 @@
     <t>Extension.extension:temporaryAssignement.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
+    <t>Extension.extension:temporaryAssignement.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J195-AffectationTemporaire-ROR/FHIR/JDV-J195-AffectationTemporaire-ROR</t>
@@ -895,7 +928,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK61"/>
+  <dimension ref="A1:AK70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -904,7 +937,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.68359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="73.0625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="23.9609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1841,26 +1874,26 @@
         <v>73</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB9" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y9" s="2"/>
-      <c r="Z9" t="s" s="2">
+      <c r="AC9" s="2"/>
+      <c r="AD9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>115</v>
@@ -1886,7 +1919,7 @@
         <v>117</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>118</v>
@@ -1896,7 +1929,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>79</v>
@@ -1911,13 +1944,13 @@
         <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1944,13 +1977,11 @@
         <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>73</v>
@@ -1968,38 +1999,40 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>79</v>
@@ -2014,13 +2047,13 @@
         <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2071,30 +2104,30 @@
         <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2105,7 +2138,7 @@
         <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>73</v>
@@ -2117,13 +2150,13 @@
         <v>73</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2162,42 +2195,42 @@
         <v>73</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2205,10 +2238,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>73</v>
@@ -2220,24 +2253,22 @@
         <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>73</v>
@@ -2267,42 +2298,42 @@
         <v>73</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2310,7 +2341,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>79</v>
@@ -2325,22 +2356,24 @@
         <v>73</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>73</v>
@@ -2358,11 +2391,13 @@
         <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>73</v>
@@ -2380,19 +2415,19 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>107</v>
@@ -2400,20 +2435,18 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>79</v>
@@ -2428,13 +2461,13 @@
         <v>73</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2473,44 +2506,44 @@
         <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>73</v>
       </c>
@@ -2531,13 +2564,13 @@
         <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2564,13 +2597,11 @@
         <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>73</v>
@@ -2588,7 +2619,7 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
@@ -2597,32 +2628,34 @@
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>73</v>
@@ -2679,16 +2712,16 @@
         <v>73</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>92</v>
@@ -2711,10 +2744,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2722,7 +2755,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>79</v>
@@ -2737,24 +2770,22 @@
         <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>73</v>
@@ -2796,10 +2827,10 @@
         <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>79</v>
@@ -2811,15 +2842,15 @@
         <v>73</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2830,7 +2861,7 @@
         <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>73</v>
@@ -2842,13 +2873,13 @@
         <v>73</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2875,56 +2906,56 @@
         <v>73</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y19" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z19" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>73</v>
       </c>
@@ -2945,22 +2976,24 @@
         <v>73</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>73</v>
@@ -3002,30 +3035,30 @@
         <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3048,13 +3081,13 @@
         <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3093,19 +3126,17 @@
         <v>73</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
@@ -3114,23 +3145,25 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>73</v>
       </c>
@@ -3139,7 +3172,7 @@
         <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>73</v>
@@ -3151,13 +3184,13 @@
         <v>73</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3184,56 +3217,56 @@
         <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>73</v>
       </c>
@@ -3254,24 +3287,22 @@
         <v>73</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>73</v>
@@ -3313,30 +3344,30 @@
         <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3359,13 +3390,13 @@
         <v>73</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3416,7 +3447,7 @@
         <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>74</v>
@@ -3425,34 +3456,32 @@
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>73</v>
@@ -3509,16 +3538,16 @@
         <v>73</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>92</v>
@@ -3541,10 +3570,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3552,7 +3581,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -3567,22 +3596,24 @@
         <v>73</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>73</v>
@@ -3624,10 +3655,10 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -3639,15 +3670,15 @@
         <v>73</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3658,7 +3689,7 @@
         <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>73</v>
@@ -3670,13 +3701,13 @@
         <v>73</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3715,44 +3746,46 @@
         <v>73</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>73</v>
       </c>
@@ -3773,24 +3806,22 @@
         <v>73</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>73</v>
@@ -3832,30 +3863,30 @@
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3878,13 +3909,13 @@
         <v>73</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3911,11 +3942,13 @@
         <v>73</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>73</v>
@@ -3933,7 +3966,7 @@
         <v>73</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>74</v>
@@ -3942,25 +3975,23 @@
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>73</v>
       </c>
@@ -3969,7 +4000,7 @@
         <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>73</v>
@@ -4026,16 +4057,16 @@
         <v>73</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>92</v>
@@ -4058,10 +4089,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4069,7 +4100,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -4084,22 +4115,24 @@
         <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>73</v>
@@ -4141,10 +4174,10 @@
         <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -4156,15 +4189,15 @@
         <v>73</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4175,7 +4208,7 @@
         <v>74</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>73</v>
@@ -4187,13 +4220,13 @@
         <v>73</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4232,50 +4265,50 @@
         <v>73</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="D33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
@@ -4290,24 +4323,22 @@
         <v>73</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>73</v>
@@ -4325,13 +4356,11 @@
         <v>73</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>73</v>
@@ -4349,19 +4378,19 @@
         <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>107</v>
@@ -4369,12 +4398,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>73</v>
       </c>
@@ -4395,13 +4426,13 @@
         <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4428,11 +4459,13 @@
         <v>73</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y34" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z34" t="s" s="2">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>73</v>
@@ -4450,40 +4483,38 @@
         <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -4498,13 +4529,13 @@
         <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4555,30 +4586,30 @@
         <v>73</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4589,7 +4620,7 @@
         <v>74</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>73</v>
@@ -4601,13 +4632,13 @@
         <v>73</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4646,42 +4677,42 @@
         <v>73</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4689,10 +4720,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>73</v>
@@ -4704,22 +4735,24 @@
         <v>73</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>73</v>
@@ -4749,42 +4782,42 @@
         <v>73</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -4792,7 +4825,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>79</v>
@@ -4807,24 +4840,22 @@
         <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>73</v>
@@ -4854,31 +4885,29 @@
         <v>73</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>107</v>
@@ -4886,12 +4915,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>73</v>
       </c>
@@ -4912,7 +4943,7 @@
         <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>111</v>
@@ -4945,13 +4976,11 @@
         <v>73</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>73</v>
@@ -4989,20 +5018,20 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>85</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>79</v>
@@ -5094,7 +5123,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>97</v>
@@ -5197,7 +5226,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>99</v>
@@ -5300,7 +5329,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>101</v>
@@ -5343,7 +5372,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>73</v>
@@ -5405,7 +5434,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>109</v>
@@ -5431,7 +5460,7 @@
         <v>73</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>111</v>
@@ -5464,11 +5493,13 @@
         <v>73</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y44" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z44" t="s" s="2">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>73</v>
@@ -5506,13 +5537,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>85</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>73</v>
@@ -5611,7 +5642,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>97</v>
@@ -5714,7 +5745,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>99</v>
@@ -5817,7 +5848,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>101</v>
@@ -5860,7 +5891,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>73</v>
@@ -5922,7 +5953,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>109</v>
@@ -5981,26 +6012,26 @@
         <v>73</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB49" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y49" s="2"/>
-      <c r="Z49" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="AC49" s="2"/>
       <c r="AD49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>115</v>
@@ -6026,10 +6057,10 @@
         <v>173</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>73</v>
@@ -6051,13 +6082,13 @@
         <v>73</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6084,13 +6115,11 @@
         <v>73</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>73</v>
@@ -6108,22 +6137,22 @@
         <v>73</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51">
@@ -6131,9 +6160,11 @@
         <v>175</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="D51" t="s" s="2">
         <v>73</v>
       </c>
@@ -6154,13 +6185,13 @@
         <v>73</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6211,30 +6242,30 @@
         <v>73</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6245,7 +6276,7 @@
         <v>74</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>73</v>
@@ -6257,13 +6288,13 @@
         <v>73</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6302,42 +6333,42 @@
         <v>73</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6345,10 +6376,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>73</v>
@@ -6360,24 +6391,22 @@
         <v>73</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>73</v>
@@ -6407,42 +6436,42 @@
         <v>73</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6450,7 +6479,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
@@ -6465,22 +6494,24 @@
         <v>73</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>73</v>
@@ -6498,11 +6529,13 @@
         <v>73</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>73</v>
@@ -6520,19 +6553,19 @@
         <v>73</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>107</v>
@@ -6543,17 +6576,15 @@
         <v>180</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>79</v>
@@ -6568,13 +6599,13 @@
         <v>73</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -6613,44 +6644,44 @@
         <v>73</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>73</v>
       </c>
@@ -6671,13 +6702,13 @@
         <v>73</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -6704,13 +6735,11 @@
         <v>73</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>73</v>
@@ -6728,7 +6757,7 @@
         <v>73</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>74</v>
@@ -6737,13 +6766,13 @@
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57">
@@ -6751,9 +6780,11 @@
         <v>183</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>73</v>
       </c>
@@ -6762,7 +6793,7 @@
         <v>74</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>73</v>
@@ -6819,16 +6850,16 @@
         <v>73</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>92</v>
@@ -6851,10 +6882,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -6862,7 +6893,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -6877,24 +6908,22 @@
         <v>73</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>73</v>
@@ -6936,10 +6965,10 @@
         <v>73</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
@@ -6951,15 +6980,15 @@
         <v>73</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -6970,7 +6999,7 @@
         <v>74</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>73</v>
@@ -6982,13 +7011,13 @@
         <v>73</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7015,52 +7044,54 @@
         <v>73</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y59" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z59" t="s" s="2">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7100,7 +7131,7 @@
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>3</v>
+        <v>184</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>73</v>
@@ -7162,10 +7193,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>115</v>
+        <v>188</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7176,7 +7207,7 @@
         <v>74</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>73</v>
@@ -7188,7 +7219,7 @@
         <v>73</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>111</v>
@@ -7233,16 +7264,14 @@
         <v>73</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="AC61" s="2"/>
       <c r="AD61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>115</v>
@@ -7260,6 +7289,937 @@
         <v>116</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="Y62" s="2"/>
+      <c r="Z62" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC67" s="2"/>
+      <c r="AD67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="D68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="Y68" s="2"/>
+      <c r="Z68" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>107</v>
       </c>
     </row>
